--- a/projects/1/study/_2_libraries/temp/data.xlsx
+++ b/projects/1/study/_2_libraries/temp/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\1\study\_2_libraries\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C186E887-0EDF-4865-BACE-2042717C524F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF8D978-FC15-4BC0-A188-7EFBB5B54852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="1440" windowWidth="18588" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рабочий лист" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -474,12 +474,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
